--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.776285</v>
+      </c>
+      <c r="H2">
+        <v>5.328855000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.2250740306326953</v>
+      </c>
+      <c r="J2">
+        <v>0.2250740306326953</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>5.834515</v>
-      </c>
-      <c r="H2">
-        <v>17.503545</v>
-      </c>
-      <c r="I2">
-        <v>0.1959004657849387</v>
-      </c>
-      <c r="J2">
-        <v>0.1959004657849387</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.690535</v>
+        <v>0.402287</v>
       </c>
       <c r="N2">
-        <v>2.071605</v>
+        <v>1.206861</v>
       </c>
       <c r="O2">
-        <v>0.2195946984481065</v>
+        <v>0.09937001049721769</v>
       </c>
       <c r="P2">
-        <v>0.2195946984481065</v>
+        <v>0.09937001049721769</v>
       </c>
       <c r="Q2">
-        <v>4.028936815525</v>
+        <v>0.7145763637950001</v>
       </c>
       <c r="R2">
-        <v>36.260431339725</v>
+        <v>6.431187274155</v>
       </c>
       <c r="S2">
-        <v>0.04301870370988722</v>
+        <v>0.02236560878662203</v>
       </c>
       <c r="T2">
-        <v>0.04301870370988722</v>
+        <v>0.02236560878662203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.834515</v>
+        <v>1.776285</v>
       </c>
       <c r="H3">
-        <v>17.503545</v>
+        <v>5.328855000000001</v>
       </c>
       <c r="I3">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="J3">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.76107</v>
       </c>
       <c r="O3">
-        <v>0.6106861247141385</v>
+        <v>0.4743525446386999</v>
       </c>
       <c r="P3">
-        <v>0.6106861247141385</v>
+        <v>0.4743525446386999</v>
       </c>
       <c r="Q3">
-        <v>11.20434977701667</v>
+        <v>3.411100741650001</v>
       </c>
       <c r="R3">
-        <v>100.83914799315</v>
+        <v>30.69990667485001</v>
       </c>
       <c r="S3">
-        <v>0.1196336962798989</v>
+        <v>0.1067644391627077</v>
       </c>
       <c r="T3">
-        <v>0.1196336962798989</v>
+        <v>0.1067644391627077</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.834515</v>
+        <v>1.776285</v>
       </c>
       <c r="H4">
-        <v>17.503545</v>
+        <v>5.328855000000001</v>
       </c>
       <c r="I4">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="J4">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.533697</v>
+        <v>1.553186</v>
       </c>
       <c r="N4">
-        <v>1.601091</v>
+        <v>4.659558000000001</v>
       </c>
       <c r="O4">
-        <v>0.1697191768377549</v>
+        <v>0.3836567155392334</v>
       </c>
       <c r="P4">
-        <v>0.1697191768377549</v>
+        <v>0.3836567155392334</v>
       </c>
       <c r="Q4">
-        <v>3.113863151955</v>
+        <v>2.758900994010001</v>
       </c>
       <c r="R4">
-        <v>28.02476836759499</v>
+        <v>24.83010894609001</v>
       </c>
       <c r="S4">
-        <v>0.03324806579515257</v>
+        <v>0.08635116334571669</v>
       </c>
       <c r="T4">
-        <v>0.03324806579515257</v>
+        <v>0.08635116334571669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.407624</v>
+        <v>1.776285</v>
       </c>
       <c r="H5">
-        <v>4.222872</v>
+        <v>5.328855000000001</v>
       </c>
       <c r="I5">
-        <v>0.04726257405286619</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="J5">
-        <v>0.04726257405286619</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.690535</v>
+        <v>0.1725446666666667</v>
       </c>
       <c r="N5">
-        <v>2.071605</v>
+        <v>0.517634</v>
       </c>
       <c r="O5">
-        <v>0.2195946984481065</v>
+        <v>0.04262072932484916</v>
       </c>
       <c r="P5">
-        <v>0.2195946984481065</v>
+        <v>0.04262072932484916</v>
       </c>
       <c r="Q5">
-        <v>0.97201363884</v>
+        <v>0.3064885032300001</v>
       </c>
       <c r="R5">
-        <v>8.748122749559998</v>
+        <v>2.758396529070001</v>
       </c>
       <c r="S5">
-        <v>0.01037861069702045</v>
+        <v>0.009592819337648916</v>
       </c>
       <c r="T5">
-        <v>0.01037861069702045</v>
+        <v>0.009592819337648916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>4.222872</v>
       </c>
       <c r="I6">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348723</v>
       </c>
       <c r="J6">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348722</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.920356666666667</v>
+        <v>0.402287</v>
       </c>
       <c r="N6">
-        <v>5.76107</v>
+        <v>1.206861</v>
       </c>
       <c r="O6">
-        <v>0.6106861247141385</v>
+        <v>0.09937001049721769</v>
       </c>
       <c r="P6">
-        <v>0.6106861247141385</v>
+        <v>0.09937001049721769</v>
       </c>
       <c r="Q6">
-        <v>2.70314013256</v>
+        <v>0.566268836088</v>
       </c>
       <c r="R6">
-        <v>24.32826119304</v>
+        <v>5.096419524791999</v>
       </c>
       <c r="S6">
-        <v>0.02886259819235985</v>
+        <v>0.01772371421402536</v>
       </c>
       <c r="T6">
-        <v>0.02886259819235985</v>
+        <v>0.01772371421402536</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>4.222872</v>
       </c>
       <c r="I7">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348723</v>
       </c>
       <c r="J7">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.533697</v>
+        <v>1.920356666666667</v>
       </c>
       <c r="N7">
-        <v>1.601091</v>
+        <v>5.76107</v>
       </c>
       <c r="O7">
-        <v>0.1697191768377549</v>
+        <v>0.4743525446386999</v>
       </c>
       <c r="P7">
-        <v>0.1697191768377549</v>
+        <v>0.4743525446386999</v>
       </c>
       <c r="Q7">
-        <v>0.751244705928</v>
+        <v>2.70314013256</v>
       </c>
       <c r="R7">
-        <v>6.761202353351999</v>
+        <v>24.32826119304</v>
       </c>
       <c r="S7">
-        <v>0.008021365163485884</v>
+        <v>0.08460589765266681</v>
       </c>
       <c r="T7">
-        <v>0.008021365163485884</v>
+        <v>0.08460589765266679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.67710466666666</v>
+        <v>1.407624</v>
       </c>
       <c r="H8">
-        <v>65.03131399999999</v>
+        <v>4.222872</v>
       </c>
       <c r="I8">
-        <v>0.7278334019312434</v>
+        <v>0.1783607964348723</v>
       </c>
       <c r="J8">
-        <v>0.7278334019312434</v>
+        <v>0.1783607964348722</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.690535</v>
+        <v>1.553186</v>
       </c>
       <c r="N8">
-        <v>2.071605</v>
+        <v>4.659558000000001</v>
       </c>
       <c r="O8">
-        <v>0.2195946984481065</v>
+        <v>0.3836567155392334</v>
       </c>
       <c r="P8">
-        <v>0.2195946984481065</v>
+        <v>0.3836567155392334</v>
       </c>
       <c r="Q8">
-        <v>14.96879947099667</v>
+        <v>2.186301890064</v>
       </c>
       <c r="R8">
-        <v>134.71919523897</v>
+        <v>19.676717010576</v>
       </c>
       <c r="S8">
-        <v>0.1598283564175509</v>
+        <v>0.06842931734116489</v>
       </c>
       <c r="T8">
-        <v>0.1598283564175509</v>
+        <v>0.06842931734116489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.67710466666666</v>
+        <v>1.407624</v>
       </c>
       <c r="H9">
-        <v>65.03131399999999</v>
+        <v>4.222872</v>
       </c>
       <c r="I9">
-        <v>0.7278334019312434</v>
+        <v>0.1783607964348723</v>
       </c>
       <c r="J9">
-        <v>0.7278334019312434</v>
+        <v>0.1783607964348722</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.920356666666667</v>
+        <v>0.1725446666666667</v>
       </c>
       <c r="N9">
-        <v>5.76107</v>
+        <v>0.517634</v>
       </c>
       <c r="O9">
-        <v>0.6106861247141385</v>
+        <v>0.04262072932484916</v>
       </c>
       <c r="P9">
-        <v>0.6106861247141385</v>
+        <v>0.04262072932484916</v>
       </c>
       <c r="Q9">
-        <v>41.62777246066445</v>
+        <v>0.242878013872</v>
       </c>
       <c r="R9">
-        <v>374.64995214598</v>
+        <v>2.185902124848</v>
       </c>
       <c r="S9">
-        <v>0.444477759662899</v>
+        <v>0.007601867227015213</v>
       </c>
       <c r="T9">
-        <v>0.444477759662899</v>
+        <v>0.007601867227015211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.67710466666666</v>
+        <v>4.248107333333333</v>
       </c>
       <c r="H10">
-        <v>65.03131399999999</v>
+        <v>12.744322</v>
       </c>
       <c r="I10">
-        <v>0.7278334019312434</v>
+        <v>0.5382799720054182</v>
       </c>
       <c r="J10">
-        <v>0.7278334019312434</v>
+        <v>0.5382799720054181</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.533697</v>
+        <v>0.402287</v>
       </c>
       <c r="N10">
-        <v>1.601091</v>
+        <v>1.206861</v>
       </c>
       <c r="O10">
-        <v>0.1697191768377549</v>
+        <v>0.09937001049721769</v>
       </c>
       <c r="P10">
-        <v>0.1697191768377549</v>
+        <v>0.09937001049721769</v>
       </c>
       <c r="Q10">
-        <v>11.569005729286</v>
+        <v>1.708958354804667</v>
       </c>
       <c r="R10">
-        <v>104.121051563574</v>
+        <v>15.380625193242</v>
       </c>
       <c r="S10">
-        <v>0.1235272858507935</v>
+        <v>0.05348888646862045</v>
       </c>
       <c r="T10">
-        <v>0.1235272858507935</v>
+        <v>0.05348888646862044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8638146666666667</v>
+        <v>4.248107333333333</v>
       </c>
       <c r="H11">
-        <v>2.591444</v>
+        <v>12.744322</v>
       </c>
       <c r="I11">
-        <v>0.02900355823095177</v>
+        <v>0.5382799720054182</v>
       </c>
       <c r="J11">
-        <v>0.02900355823095177</v>
+        <v>0.5382799720054181</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.690535</v>
+        <v>1.920356666666667</v>
       </c>
       <c r="N11">
-        <v>2.071605</v>
+        <v>5.76107</v>
       </c>
       <c r="O11">
-        <v>0.2195946984481065</v>
+        <v>0.4743525446386999</v>
       </c>
       <c r="P11">
-        <v>0.2195946984481065</v>
+        <v>0.4743525446386999</v>
       </c>
       <c r="Q11">
-        <v>0.5964942608466667</v>
+        <v>8.157881238282222</v>
       </c>
       <c r="R11">
-        <v>5.36844834762</v>
+        <v>73.42093114454001</v>
       </c>
       <c r="S11">
-        <v>0.006369027623647951</v>
+        <v>0.2553344744488182</v>
       </c>
       <c r="T11">
-        <v>0.006369027623647952</v>
+        <v>0.2553344744488182</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8638146666666667</v>
+        <v>4.248107333333333</v>
       </c>
       <c r="H12">
-        <v>2.591444</v>
+        <v>12.744322</v>
       </c>
       <c r="I12">
-        <v>0.02900355823095177</v>
+        <v>0.5382799720054182</v>
       </c>
       <c r="J12">
-        <v>0.02900355823095177</v>
+        <v>0.5382799720054181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.920356666666667</v>
+        <v>1.553186</v>
       </c>
       <c r="N12">
-        <v>5.76107</v>
+        <v>4.659558000000001</v>
       </c>
       <c r="O12">
-        <v>0.6106861247141385</v>
+        <v>0.3836567155392334</v>
       </c>
       <c r="P12">
-        <v>0.6106861247141385</v>
+        <v>0.3836567155392334</v>
       </c>
       <c r="Q12">
-        <v>1.658832253897778</v>
+        <v>6.598100836630667</v>
       </c>
       <c r="R12">
-        <v>14.92949028508</v>
+        <v>59.38290752967601</v>
       </c>
       <c r="S12">
-        <v>0.01771207057898079</v>
+        <v>0.2065147261001492</v>
       </c>
       <c r="T12">
-        <v>0.01771207057898079</v>
+        <v>0.2065147261001492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.248107333333333</v>
+      </c>
+      <c r="H13">
+        <v>12.744322</v>
+      </c>
+      <c r="I13">
+        <v>0.5382799720054182</v>
+      </c>
+      <c r="J13">
+        <v>0.5382799720054181</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1725446666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.517634</v>
+      </c>
+      <c r="O13">
+        <v>0.04262072932484916</v>
+      </c>
+      <c r="P13">
+        <v>0.04262072932484916</v>
+      </c>
+      <c r="Q13">
+        <v>0.7329882637942223</v>
+      </c>
+      <c r="R13">
+        <v>6.596894374148</v>
+      </c>
+      <c r="S13">
+        <v>0.02294188498783032</v>
+      </c>
+      <c r="T13">
+        <v>0.02294188498783031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.459987</v>
+      </c>
+      <c r="H14">
+        <v>1.379961</v>
+      </c>
+      <c r="I14">
+        <v>0.05828520092701431</v>
+      </c>
+      <c r="J14">
+        <v>0.0582852009270143</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.402287</v>
+      </c>
+      <c r="N14">
+        <v>1.206861</v>
+      </c>
+      <c r="O14">
+        <v>0.09937001049721769</v>
+      </c>
+      <c r="P14">
+        <v>0.09937001049721769</v>
+      </c>
+      <c r="Q14">
+        <v>0.185046790269</v>
+      </c>
+      <c r="R14">
+        <v>1.665421112421</v>
+      </c>
+      <c r="S14">
+        <v>0.005791801027949854</v>
+      </c>
+      <c r="T14">
+        <v>0.005791801027949853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.459987</v>
+      </c>
+      <c r="H15">
+        <v>1.379961</v>
+      </c>
+      <c r="I15">
+        <v>0.05828520092701431</v>
+      </c>
+      <c r="J15">
+        <v>0.0582852009270143</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.920356666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.76107</v>
+      </c>
+      <c r="O15">
+        <v>0.4743525446386999</v>
+      </c>
+      <c r="P15">
+        <v>0.4743525446386999</v>
+      </c>
+      <c r="Q15">
+        <v>0.88333910203</v>
+      </c>
+      <c r="R15">
+        <v>7.95005191827</v>
+      </c>
+      <c r="S15">
+        <v>0.02764773337450714</v>
+      </c>
+      <c r="T15">
+        <v>0.02764773337450714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.8638146666666667</v>
-      </c>
-      <c r="H13">
-        <v>2.591444</v>
-      </c>
-      <c r="I13">
-        <v>0.02900355823095177</v>
-      </c>
-      <c r="J13">
-        <v>0.02900355823095177</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.533697</v>
-      </c>
-      <c r="N13">
-        <v>1.601091</v>
-      </c>
-      <c r="O13">
-        <v>0.1697191768377549</v>
-      </c>
-      <c r="P13">
-        <v>0.1697191768377549</v>
-      </c>
-      <c r="Q13">
-        <v>0.461015296156</v>
-      </c>
-      <c r="R13">
-        <v>4.149137665404</v>
-      </c>
-      <c r="S13">
-        <v>0.004922460028323025</v>
-      </c>
-      <c r="T13">
-        <v>0.004922460028323026</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.459987</v>
+      </c>
+      <c r="H16">
+        <v>1.379961</v>
+      </c>
+      <c r="I16">
+        <v>0.05828520092701431</v>
+      </c>
+      <c r="J16">
+        <v>0.0582852009270143</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.553186</v>
+      </c>
+      <c r="N16">
+        <v>4.659558000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.3836567155392334</v>
+      </c>
+      <c r="P16">
+        <v>0.3836567155392334</v>
+      </c>
+      <c r="Q16">
+        <v>0.714445368582</v>
+      </c>
+      <c r="R16">
+        <v>6.430008317238</v>
+      </c>
+      <c r="S16">
+        <v>0.02236150875220259</v>
+      </c>
+      <c r="T16">
+        <v>0.02236150875220259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.459987</v>
+      </c>
+      <c r="H17">
+        <v>1.379961</v>
+      </c>
+      <c r="I17">
+        <v>0.05828520092701431</v>
+      </c>
+      <c r="J17">
+        <v>0.0582852009270143</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1725446666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.517634</v>
+      </c>
+      <c r="O17">
+        <v>0.04262072932484916</v>
+      </c>
+      <c r="P17">
+        <v>0.04262072932484916</v>
+      </c>
+      <c r="Q17">
+        <v>0.079368303586</v>
+      </c>
+      <c r="R17">
+        <v>0.714314732274</v>
+      </c>
+      <c r="S17">
+        <v>0.002484157772354724</v>
+      </c>
+      <c r="T17">
+        <v>0.002484157772354724</v>
       </c>
     </row>
   </sheetData>
